--- a/Updates/Input data/8682-AdvancedActionListi (5).xlsx
+++ b/Updates/Input data/8682-AdvancedActionListi (5).xlsx
@@ -123,7 +123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -178,11 +178,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45922.94398148148</v>
+        <v>45924.89655092593</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6474.600089</t>
+          <t>M.15608.6476.480681</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -201,10 +201,10 @@
         </is>
       </c>
       <c r="F2" s="6" t="n">
-        <v>93.12</v>
+        <v>71.03</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>9.31</v>
+        <v>7.1</v>
       </c>
       <c r="H2" s="8" t="inlineStr">
         <is>
@@ -219,11 +219,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45922.669907407406</v>
+        <v>45924.82363425926</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6474.120532</t>
+          <t>M.15608.6476.340396</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -242,10 +242,10 @@
         </is>
       </c>
       <c r="F3" s="6" t="n">
-        <v>28.41</v>
+        <v>110.49</v>
       </c>
       <c r="G3" s="7" t="n">
-        <v>2.84</v>
+        <v>11.05</v>
       </c>
       <c r="H3" s="8" t="inlineStr">
         <is>
@@ -260,11 +260,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45922.66909722222</v>
+        <v>45924.45195601852</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6474.118778</t>
+          <t>M.15608.6475.1392087</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -283,14 +283,14 @@
         </is>
       </c>
       <c r="F4" s="6" t="n">
-        <v>56.64</v>
+        <v>110.49</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>5.66</v>
+        <v>11.05</v>
       </c>
       <c r="H4" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I4" s="9" t="inlineStr">
@@ -301,11 +301,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45922.641689814816</v>
+        <v>45924.45075231481</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6474.88188</t>
+          <t>M.15608.6475.1390967</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -324,14 +324,14 @@
         </is>
       </c>
       <c r="F5" s="6" t="n">
-        <v>29.66</v>
+        <v>14.21</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>2.97</v>
+        <v>1.42</v>
       </c>
       <c r="H5" s="8" t="inlineStr">
         <is>
-          <t>D25</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I5" s="9" t="inlineStr">
@@ -342,11 +342,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45922.62482638889</v>
+        <v>45924.420590277776</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6474.78250</t>
+          <t>M.15608.6475.1365344</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -365,14 +365,14 @@
         </is>
       </c>
       <c r="F6" s="6" t="n">
-        <v>91.54</v>
+        <v>55.25</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>9.15</v>
+        <v>5.52</v>
       </c>
       <c r="H6" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D33</t>
         </is>
       </c>
       <c r="I6" s="9" t="inlineStr">
@@ -383,11 +383,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45922.62149305556</v>
+        <v>45924.196180555555</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6474.75772</t>
+          <t>M.15608.6475.1103931</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -406,14 +406,14 @@
         </is>
       </c>
       <c r="F7" s="6" t="n">
-        <v>53.66</v>
+        <v>61.1</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>5.37</v>
+        <v>6.11</v>
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I7" s="9" t="inlineStr">
@@ -424,11 +424,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45922.54430555556</v>
+        <v>45924.152962962966</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6474.26409</t>
+          <t>M.15608.6475.940968</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -447,10 +447,10 @@
         </is>
       </c>
       <c r="F8" s="6" t="n">
-        <v>46.77</v>
+        <v>56.82</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>4.68</v>
+        <v>5.68</v>
       </c>
       <c r="H8" s="8" t="inlineStr">
         <is>
@@ -465,11 +465,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45922.50570601852</v>
+        <v>45924.09074074074</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6474.5548</t>
+          <t>15608.6475.727892</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Sale (iOS App)</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -488,10 +488,10 @@
         </is>
       </c>
       <c r="F9" s="6" t="n">
-        <v>12.63</v>
+        <v>83.66</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>1.26</v>
+        <v>8.37</v>
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
@@ -506,11 +506,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45922.32877314815</v>
+        <v>45923.9778125</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6473.1255214</t>
+          <t>M.15608.6475.567531</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="F10" s="6" t="n">
-        <v>119.95</v>
+        <v>37.88</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>11.99</v>
+        <v>3.79</v>
       </c>
       <c r="H10" s="8" t="inlineStr">
         <is>
@@ -547,11 +547,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45921.89040509259</v>
+        <v>45923.95873842593</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6473.477836</t>
+          <t>M.15608.6475.537714</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -570,14 +570,14 @@
         </is>
       </c>
       <c r="F11" s="6" t="n">
-        <v>41.03</v>
+        <v>31.29</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>4.1</v>
+        <v>3.13</v>
       </c>
       <c r="H11" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I11" s="9" t="inlineStr">
@@ -588,11 +588,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45921.883518518516</v>
+        <v>45923.75277777778</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6473.468271</t>
+          <t>M.15608.6475.207789</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -611,14 +611,14 @@
         </is>
       </c>
       <c r="F12" s="6" t="n">
-        <v>14.2</v>
+        <v>39.46</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>1.42</v>
+        <v>3.95</v>
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I12" s="9" t="inlineStr">
@@ -629,11 +629,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45921.85337962963</v>
+        <v>45923.56480324074</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6473.403305</t>
+          <t>M.15608.6475.33969</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -652,14 +652,14 @@
         </is>
       </c>
       <c r="F13" s="6" t="n">
-        <v>126.26</v>
+        <v>14.21</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>12.63</v>
+        <v>1.42</v>
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I13" s="9" t="inlineStr">
@@ -670,11 +670,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45921.79107638889</v>
+        <v>45923.549409722225</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6473.281411</t>
+          <t>M.15608.6475.27216</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="F14" s="6" t="n">
-        <v>14.2</v>
+        <v>69.45</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>1.42</v>
+        <v>6.95</v>
       </c>
       <c r="H14" s="8" t="inlineStr">
         <is>
@@ -711,11 +711,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45921.623194444444</v>
+        <v>45923.325949074075</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6473.59364</t>
+          <t>M.15608.6474.1233370</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="F15" s="6" t="n">
-        <v>45.77</v>
+        <v>45.78</v>
       </c>
       <c r="G15" s="7" t="n">
         <v>4.58</v>
@@ -752,11 +752,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45921.591678240744</v>
+        <v>45923.19226851852</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6473.42688</t>
+          <t>M.15608.6474.1048172</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="F16" s="6" t="n">
-        <v>14.2</v>
+        <v>26.83</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>1.42</v>
+        <v>2.68</v>
       </c>
       <c r="H16" s="8" t="inlineStr">
         <is>
@@ -793,11 +793,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45921.46173611111</v>
+        <v>45923.15578703704</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.1271147</t>
+          <t>M.15608.6474.1007100</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="F17" s="6" t="n">
-        <v>61.55</v>
+        <v>45.78</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>6.16</v>
+        <v>4.58</v>
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
@@ -834,11 +834,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45921.45627314815</v>
+        <v>45923.08972222222</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.1257615</t>
+          <t>M.15608.6474.889732</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="F18" s="6" t="n">
-        <v>61.55</v>
+        <v>37.88</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>6.16</v>
+        <v>3.79</v>
       </c>
       <c r="H18" s="8" t="inlineStr">
         <is>
@@ -875,11 +875,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45921.37559027778</v>
+        <v>45922.94398148148</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.1183732</t>
+          <t>M.15608.6474.600089</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -898,10 +898,10 @@
         </is>
       </c>
       <c r="F19" s="6" t="n">
-        <v>64.71</v>
+        <v>93.12</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>6.47</v>
+        <v>9.31</v>
       </c>
       <c r="H19" s="8" t="inlineStr">
         <is>
@@ -916,11 +916,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45921.30403935185</v>
+        <v>45922.669907407406</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.1117867</t>
+          <t>M.15608.6474.120532</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -939,14 +939,14 @@
         </is>
       </c>
       <c r="F20" s="6" t="n">
-        <v>86.45</v>
+        <v>28.41</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>8.65</v>
+        <v>2.84</v>
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I20" s="9" t="inlineStr">
@@ -957,11 +957,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45921.25811342592</v>
+        <v>45922.66909722222</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.1060703</t>
+          <t>M.15608.6474.118778</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="F21" s="6" t="n">
-        <v>87.93</v>
+        <v>56.64</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>8.79</v>
+        <v>5.66</v>
       </c>
       <c r="H21" s="8" t="inlineStr">
         <is>
@@ -998,11 +998,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45921.244363425925</v>
+        <v>45922.641689814816</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.1038217</t>
+          <t>M.15608.6474.88188</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1021,14 +1021,14 @@
         </is>
       </c>
       <c r="F22" s="6" t="n">
-        <v>87.93</v>
+        <v>29.66</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>8.79</v>
+        <v>2.97</v>
       </c>
       <c r="H22" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>D25</t>
         </is>
       </c>
       <c r="I22" s="9" t="inlineStr">
@@ -1039,11 +1039,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45921.24317129629</v>
+        <v>45922.62482638889</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.1035500</t>
+          <t>M.15608.6474.78250</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1062,14 +1062,14 @@
         </is>
       </c>
       <c r="F23" s="6" t="n">
-        <v>87.93</v>
+        <v>91.54</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>8.79</v>
+        <v>9.15</v>
       </c>
       <c r="H23" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I23" s="9" t="inlineStr">
@@ -1080,11 +1080,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45921.24013888889</v>
+        <v>45922.62149305556</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.1032470</t>
+          <t>M.15608.6474.75772</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1103,14 +1103,14 @@
         </is>
       </c>
       <c r="F24" s="6" t="n">
-        <v>87.93</v>
+        <v>53.66</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>8.79</v>
+        <v>5.37</v>
       </c>
       <c r="H24" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I24" s="9" t="inlineStr">
@@ -1121,11 +1121,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45921.235671296294</v>
+        <v>45922.54430555556</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.1028837</t>
+          <t>M.15608.6474.26409</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -1144,14 +1144,14 @@
         </is>
       </c>
       <c r="F25" s="6" t="n">
-        <v>87.93</v>
+        <v>46.77</v>
       </c>
       <c r="G25" s="7" t="n">
-        <v>8.79</v>
+        <v>4.68</v>
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I25" s="9" t="inlineStr">
@@ -1162,11 +1162,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45921.234456018516</v>
+        <v>45922.50570601852</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.1026922</t>
+          <t>M.15608.6474.5548</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1185,14 +1185,14 @@
         </is>
       </c>
       <c r="F26" s="6" t="n">
-        <v>87.93</v>
+        <v>12.63</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>8.79</v>
+        <v>1.26</v>
       </c>
       <c r="H26" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I26" s="9" t="inlineStr">
@@ -1203,11 +1203,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45921.08530092592</v>
+        <v>45922.32877314815</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.816131</t>
+          <t>M.15608.6473.1255214</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="F27" s="6" t="n">
-        <v>110.48</v>
+        <v>119.95</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>11.05</v>
+        <v>11.99</v>
       </c>
       <c r="H27" s="8" t="inlineStr">
         <is>
@@ -1244,11 +1244,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45921.0775462963</v>
+        <v>45921.89040509259</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.806771</t>
+          <t>M.15608.6473.477836</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="F28" s="6" t="n">
-        <v>14.2</v>
+        <v>41.03</v>
       </c>
       <c r="G28" s="7" t="n">
-        <v>1.42</v>
+        <v>4.1</v>
       </c>
       <c r="H28" s="8" t="inlineStr">
         <is>
@@ -1285,11 +1285,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45921.043541666666</v>
+        <v>45921.883518518516</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.749899</t>
+          <t>M.15608.6473.468271</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1308,14 +1308,14 @@
         </is>
       </c>
       <c r="F29" s="6" t="n">
-        <v>26.83</v>
+        <v>14.2</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>2.68</v>
+        <v>1.42</v>
       </c>
       <c r="H29" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I29" s="9" t="inlineStr">
@@ -1326,11 +1326,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45921.03590277778</v>
+        <v>45921.85337962963</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.741549</t>
+          <t>M.15608.6473.403305</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1349,14 +1349,14 @@
         </is>
       </c>
       <c r="F30" s="6" t="n">
-        <v>110.48</v>
+        <v>126.26</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>11.05</v>
+        <v>12.63</v>
       </c>
       <c r="H30" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I30" s="9" t="inlineStr">
@@ -1367,11 +1367,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45920.707662037035</v>
+        <v>45921.79107638889</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.161617</t>
+          <t>M.15608.6473.281411</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="F31" s="6" t="n">
-        <v>110.48</v>
+        <v>14.2</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>11.05</v>
+        <v>1.42</v>
       </c>
       <c r="H31" s="8" t="inlineStr">
         <is>
@@ -1408,11 +1408,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45920.66552083333</v>
+        <v>45921.623194444444</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.109901</t>
+          <t>M.15608.6473.59364</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1431,14 +1431,14 @@
         </is>
       </c>
       <c r="F32" s="6" t="n">
-        <v>34.27</v>
+        <v>45.77</v>
       </c>
       <c r="G32" s="7" t="n">
-        <v>3.43</v>
+        <v>4.58</v>
       </c>
       <c r="H32" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I32" s="9" t="inlineStr">
@@ -1449,11 +1449,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45920.52258101852</v>
+        <v>45921.591678240744</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.14283</t>
+          <t>M.15608.6473.42688</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="F33" s="6" t="n">
-        <v>119.95</v>
+        <v>14.2</v>
       </c>
       <c r="G33" s="7" t="n">
-        <v>11.99</v>
+        <v>1.42</v>
       </c>
       <c r="H33" s="8" t="inlineStr">
         <is>
@@ -1490,11 +1490,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45920.51552083333</v>
+        <v>45921.46173611111</v>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6472.11060</t>
+          <t>M.15608.6472.1271147</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="F34" s="6" t="n">
-        <v>119.95</v>
+        <v>61.55</v>
       </c>
       <c r="G34" s="7" t="n">
-        <v>11.99</v>
+        <v>6.16</v>
       </c>
       <c r="H34" s="8" t="inlineStr">
         <is>
@@ -1531,11 +1531,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45920.226064814815</v>
+        <v>45921.45627314815</v>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6471.1087623</t>
+          <t>M.15608.6472.1257615</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -1554,14 +1554,14 @@
         </is>
       </c>
       <c r="F35" s="6" t="n">
-        <v>26.83</v>
+        <v>61.55</v>
       </c>
       <c r="G35" s="7" t="n">
-        <v>2.68</v>
+        <v>6.16</v>
       </c>
       <c r="H35" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I35" s="9" t="inlineStr">
@@ -1572,11 +1572,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45920.2175</v>
+        <v>45921.37559027778</v>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6471.1079267</t>
+          <t>M.15608.6472.1183732</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="F36" s="6" t="n">
-        <v>37.88</v>
+        <v>64.71</v>
       </c>
       <c r="G36" s="7" t="n">
-        <v>3.79</v>
+        <v>6.47</v>
       </c>
       <c r="H36" s="8" t="inlineStr">
         <is>
@@ -1613,11 +1613,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45920.13730324074</v>
+        <v>45921.30403935185</v>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6471.965366</t>
+          <t>M.15608.6472.1117867</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -1636,14 +1636,14 @@
         </is>
       </c>
       <c r="F37" s="6" t="n">
-        <v>14.2</v>
+        <v>86.45</v>
       </c>
       <c r="G37" s="7" t="n">
-        <v>1.42</v>
+        <v>8.65</v>
       </c>
       <c r="H37" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I37" s="9" t="inlineStr">
@@ -1654,11 +1654,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45920.00017361111</v>
+        <v>45921.25811342592</v>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6471.731981</t>
+          <t>M.15608.6472.1060703</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Sale (Android App)</t>
+          <t>Sale (iOS App)</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
@@ -1677,10 +1677,10 @@
         </is>
       </c>
       <c r="F38" s="6" t="n">
-        <v>46.2</v>
+        <v>87.93</v>
       </c>
       <c r="G38" s="7" t="n">
-        <v>4.62</v>
+        <v>8.79</v>
       </c>
       <c r="H38" s="8" t="inlineStr">
         <is>
@@ -1695,11 +1695,11 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45919.867731481485</v>
+        <v>45921.244363425925</v>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6471.469146</t>
+          <t>M.15608.6472.1038217</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -1718,14 +1718,14 @@
         </is>
       </c>
       <c r="F39" s="6" t="n">
-        <v>110.49</v>
+        <v>87.93</v>
       </c>
       <c r="G39" s="7" t="n">
-        <v>11.05</v>
+        <v>8.79</v>
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I39" s="9" t="inlineStr">
@@ -1736,11 +1736,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45919.75164351852</v>
+        <v>45921.24317129629</v>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6471.247001</t>
+          <t>M.15608.6472.1035500</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1759,14 +1759,14 @@
         </is>
       </c>
       <c r="F40" s="6" t="n">
-        <v>14.21</v>
+        <v>87.93</v>
       </c>
       <c r="G40" s="7" t="n">
-        <v>1.42</v>
+        <v>8.79</v>
       </c>
       <c r="H40" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I40" s="9" t="inlineStr">
@@ -1777,11 +1777,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45919.74233796296</v>
+        <v>45921.24013888889</v>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6471.235812</t>
+          <t>M.15608.6472.1032470</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -1800,14 +1800,14 @@
         </is>
       </c>
       <c r="F41" s="6" t="n">
-        <v>97.87</v>
+        <v>87.93</v>
       </c>
       <c r="G41" s="7" t="n">
-        <v>9.79</v>
+        <v>8.79</v>
       </c>
       <c r="H41" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I41" s="9" t="inlineStr">
@@ -1818,11 +1818,11 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45919.71079861111</v>
+        <v>45921.235671296294</v>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6471.177985</t>
+          <t>M.15608.6472.1028837</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -1841,14 +1841,14 @@
         </is>
       </c>
       <c r="F42" s="6" t="n">
-        <v>28.41</v>
+        <v>87.93</v>
       </c>
       <c r="G42" s="7" t="n">
-        <v>2.84</v>
+        <v>8.79</v>
       </c>
       <c r="H42" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I42" s="9" t="inlineStr">
@@ -1859,11 +1859,11 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45919.700266203705</v>
+        <v>45921.234456018516</v>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6471.166549</t>
+          <t>M.15608.6472.1026922</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -1882,14 +1882,14 @@
         </is>
       </c>
       <c r="F43" s="6" t="n">
-        <v>14.21</v>
+        <v>87.93</v>
       </c>
       <c r="G43" s="7" t="n">
-        <v>1.42</v>
+        <v>8.79</v>
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I43" s="9" t="inlineStr">
@@ -1900,11 +1900,11 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45919.61974537037</v>
+        <v>45921.08530092592</v>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6471.69445</t>
+          <t>M.15608.6472.816131</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1923,14 +1923,14 @@
         </is>
       </c>
       <c r="F44" s="6" t="n">
-        <v>104.35</v>
+        <v>110.48</v>
       </c>
       <c r="G44" s="7" t="n">
-        <v>10.44</v>
+        <v>11.05</v>
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I44" s="9" t="inlineStr">
@@ -1941,11 +1941,11 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45919.60857638889</v>
+        <v>45921.0775462963</v>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6471.62533</t>
+          <t>M.15608.6472.806771</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -1964,14 +1964,14 @@
         </is>
       </c>
       <c r="F45" s="6" t="n">
-        <v>41.74</v>
+        <v>14.2</v>
       </c>
       <c r="G45" s="7" t="n">
-        <v>4.17</v>
+        <v>1.42</v>
       </c>
       <c r="H45" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I45" s="9" t="inlineStr">
@@ -1982,11 +1982,11 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45919.48480324074</v>
+        <v>45921.043541666666</v>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.1345344</t>
+          <t>M.15608.6472.749899</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="F46" s="6" t="n">
-        <v>110.49</v>
+        <v>26.83</v>
       </c>
       <c r="G46" s="7" t="n">
-        <v>11.05</v>
+        <v>2.68</v>
       </c>
       <c r="H46" s="8" t="inlineStr">
         <is>
@@ -2023,11 +2023,11 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45919.44966435185</v>
+        <v>45921.03590277778</v>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.1308984</t>
+          <t>M.15608.6472.741549</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2046,14 +2046,14 @@
         </is>
       </c>
       <c r="F47" s="6" t="n">
-        <v>37.25</v>
+        <v>110.48</v>
       </c>
       <c r="G47" s="7" t="n">
-        <v>3.73</v>
+        <v>11.05</v>
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I47" s="9" t="inlineStr">
@@ -2064,11 +2064,11 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45919.43662037037</v>
+        <v>45920.707662037035</v>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.1279106</t>
+          <t>M.15608.6472.161617</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -2087,14 +2087,14 @@
         </is>
       </c>
       <c r="F48" s="6" t="n">
-        <v>42.79</v>
+        <v>110.48</v>
       </c>
       <c r="G48" s="7" t="n">
-        <v>4.28</v>
+        <v>11.05</v>
       </c>
       <c r="H48" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I48" s="9" t="inlineStr">
@@ -2105,11 +2105,11 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45919.372465277775</v>
+        <v>45920.66552083333</v>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.1222918</t>
+          <t>M.15608.6472.109901</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -2128,14 +2128,14 @@
         </is>
       </c>
       <c r="F49" s="6" t="n">
-        <v>110.49</v>
+        <v>34.27</v>
       </c>
       <c r="G49" s="7" t="n">
-        <v>11.05</v>
+        <v>3.43</v>
       </c>
       <c r="H49" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I49" s="9" t="inlineStr">
@@ -2146,11 +2146,11 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45919.36004629629</v>
+        <v>45920.52258101852</v>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.1207272</t>
+          <t>M.15608.6472.14283</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="F50" s="6" t="n">
-        <v>14.21</v>
+        <v>119.95</v>
       </c>
       <c r="G50" s="7" t="n">
-        <v>1.42</v>
+        <v>11.99</v>
       </c>
       <c r="H50" s="8" t="inlineStr">
         <is>
@@ -2187,11 +2187,11 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45919.338425925926</v>
+        <v>45920.51552083333</v>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.1180635</t>
+          <t>M.15608.6472.11060</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2210,10 +2210,10 @@
         </is>
       </c>
       <c r="F51" s="6" t="n">
-        <v>50.51</v>
+        <v>119.95</v>
       </c>
       <c r="G51" s="7" t="n">
-        <v>5.05</v>
+        <v>11.99</v>
       </c>
       <c r="H51" s="8" t="inlineStr">
         <is>
@@ -2228,11 +2228,11 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45919.33574074074</v>
+        <v>45920.226064814815</v>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.1177471</t>
+          <t>M.15608.6471.1087623</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2251,14 +2251,14 @@
         </is>
       </c>
       <c r="F52" s="6" t="n">
-        <v>34.73</v>
+        <v>26.83</v>
       </c>
       <c r="G52" s="7" t="n">
-        <v>3.47</v>
+        <v>2.68</v>
       </c>
       <c r="H52" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I52" s="9" t="inlineStr">
@@ -2269,11 +2269,11 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45919.22694444445</v>
+        <v>45920.2175</v>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.1066795</t>
+          <t>M.15608.6471.1079267</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="F53" s="6" t="n">
-        <v>72.61</v>
+        <v>37.88</v>
       </c>
       <c r="G53" s="7" t="n">
-        <v>7.26</v>
+        <v>3.79</v>
       </c>
       <c r="H53" s="8" t="inlineStr">
         <is>
@@ -2310,11 +2310,11 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45919.21518518519</v>
+        <v>45920.13730324074</v>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.1053702</t>
+          <t>M.15608.6471.965366</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -2333,14 +2333,14 @@
         </is>
       </c>
       <c r="F54" s="6" t="n">
-        <v>104.35</v>
+        <v>14.2</v>
       </c>
       <c r="G54" s="7" t="n">
-        <v>10.44</v>
+        <v>1.42</v>
       </c>
       <c r="H54" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I54" s="9" t="inlineStr">
@@ -2351,11 +2351,11 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45919.14136574074</v>
+        <v>45920.00017361111</v>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.938552</t>
+          <t>M.15608.6471.731981</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Sale (iOS App)</t>
+          <t>Sale (Android App)</t>
         </is>
       </c>
       <c r="E55" s="5" t="inlineStr">
@@ -2374,14 +2374,14 @@
         </is>
       </c>
       <c r="F55" s="6" t="n">
-        <v>47.35</v>
+        <v>46.2</v>
       </c>
       <c r="G55" s="7" t="n">
-        <v>4.74</v>
+        <v>4.62</v>
       </c>
       <c r="H55" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I55" s="9" t="inlineStr">
@@ -2392,11 +2392,11 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45919.09471064815</v>
+        <v>45919.867731481485</v>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.863616</t>
+          <t>M.15608.6471.469146</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Sale (Android App)</t>
+          <t>Sale (iOS App)</t>
         </is>
       </c>
       <c r="E56" s="5" t="inlineStr">
@@ -2415,14 +2415,14 @@
         </is>
       </c>
       <c r="F56" s="6" t="n">
-        <v>89.45</v>
+        <v>110.49</v>
       </c>
       <c r="G56" s="7" t="n">
-        <v>8.94</v>
+        <v>11.05</v>
       </c>
       <c r="H56" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I56" s="9" t="inlineStr">
@@ -2433,11 +2433,11 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45919.07142361111</v>
+        <v>45919.75164351852</v>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.813222</t>
+          <t>M.15608.6471.247001</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -2456,10 +2456,10 @@
         </is>
       </c>
       <c r="F57" s="6" t="n">
-        <v>33.15</v>
+        <v>14.21</v>
       </c>
       <c r="G57" s="7" t="n">
-        <v>3.31</v>
+        <v>1.42</v>
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
@@ -2474,11 +2474,11 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45919.031643518516</v>
+        <v>45919.74233796296</v>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.744587</t>
+          <t>M.15608.6471.235812</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2497,14 +2497,14 @@
         </is>
       </c>
       <c r="F58" s="6" t="n">
-        <v>43.22</v>
+        <v>97.87</v>
       </c>
       <c r="G58" s="7" t="n">
-        <v>4.32</v>
+        <v>9.79</v>
       </c>
       <c r="H58" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I58" s="9" t="inlineStr">
@@ -2515,11 +2515,11 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45918.92717592593</v>
+        <v>45919.71079861111</v>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.541097</t>
+          <t>M.15608.6471.177985</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="F59" s="6" t="n">
-        <v>37.88</v>
+        <v>28.41</v>
       </c>
       <c r="G59" s="7" t="n">
-        <v>3.79</v>
+        <v>2.84</v>
       </c>
       <c r="H59" s="8" t="inlineStr">
         <is>
@@ -2556,11 +2556,11 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45918.83820601852</v>
+        <v>45919.700266203705</v>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.353586</t>
+          <t>M.15608.6471.166549</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -2579,10 +2579,10 @@
         </is>
       </c>
       <c r="F60" s="6" t="n">
-        <v>93.13</v>
+        <v>14.21</v>
       </c>
       <c r="G60" s="7" t="n">
-        <v>9.31</v>
+        <v>1.42</v>
       </c>
       <c r="H60" s="8" t="inlineStr">
         <is>
@@ -2597,11 +2597,11 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45918.782222222224</v>
+        <v>45919.61974537037</v>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.245924</t>
+          <t>M.15608.6471.69445</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -2620,14 +2620,14 @@
         </is>
       </c>
       <c r="F61" s="6" t="n">
-        <v>28.41</v>
+        <v>104.35</v>
       </c>
       <c r="G61" s="7" t="n">
-        <v>2.84</v>
+        <v>10.44</v>
       </c>
       <c r="H61" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I61" s="9" t="inlineStr">
@@ -2638,11 +2638,11 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45918.75540509259</v>
+        <v>45919.60857638889</v>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.195187</t>
+          <t>M.15608.6471.62533</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -2661,14 +2661,14 @@
         </is>
       </c>
       <c r="F62" s="6" t="n">
-        <v>110.49</v>
+        <v>41.74</v>
       </c>
       <c r="G62" s="7" t="n">
-        <v>11.05</v>
+        <v>4.17</v>
       </c>
       <c r="H62" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I62" s="9" t="inlineStr">
@@ -2679,11 +2679,11 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45918.75324074074</v>
+        <v>45919.48480324074</v>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.192368</t>
+          <t>M.15608.6470.1345344</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -2720,11 +2720,11 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45918.74896990741</v>
+        <v>45919.44966435185</v>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.186732</t>
+          <t>M.15608.6470.1308984</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -2743,14 +2743,14 @@
         </is>
       </c>
       <c r="F64" s="6" t="n">
-        <v>31.57</v>
+        <v>37.25</v>
       </c>
       <c r="G64" s="7" t="n">
-        <v>3.16</v>
+        <v>3.73</v>
       </c>
       <c r="H64" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I64" s="9" t="inlineStr">
@@ -2761,11 +2761,11 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45918.64865740741</v>
+        <v>45919.43662037037</v>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.82192</t>
+          <t>M.15608.6470.1279106</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -2784,14 +2784,14 @@
         </is>
       </c>
       <c r="F65" s="6" t="n">
-        <v>63.14</v>
+        <v>42.79</v>
       </c>
       <c r="G65" s="7" t="n">
-        <v>6.31</v>
+        <v>4.28</v>
       </c>
       <c r="H65" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I65" s="9" t="inlineStr">
@@ -2802,11 +2802,11 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>45918.645219907405</v>
+        <v>45919.372465277775</v>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.80032</t>
+          <t>M.15608.6470.1222918</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="F66" s="6" t="n">
-        <v>52.09</v>
+        <v>110.49</v>
       </c>
       <c r="G66" s="7" t="n">
-        <v>5.21</v>
+        <v>11.05</v>
       </c>
       <c r="H66" s="8" t="inlineStr">
         <is>
@@ -2843,11 +2843,11 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>45918.614756944444</v>
+        <v>45919.36004629629</v>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.64952</t>
+          <t>M.15608.6470.1207272</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="F67" s="6" t="n">
-        <v>116.14</v>
+        <v>14.21</v>
       </c>
       <c r="G67" s="7" t="n">
-        <v>11.61</v>
+        <v>1.42</v>
       </c>
       <c r="H67" s="8" t="inlineStr">
         <is>
@@ -2884,11 +2884,11 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45918.59846064815</v>
+        <v>45919.338425925926</v>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6470.49497</t>
+          <t>M.15608.6470.1180635</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -2907,14 +2907,14 @@
         </is>
       </c>
       <c r="F68" s="6" t="n">
-        <v>59.63</v>
+        <v>50.51</v>
       </c>
       <c r="G68" s="7" t="n">
-        <v>5.96</v>
+        <v>5.05</v>
       </c>
       <c r="H68" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I68" s="9" t="inlineStr">
@@ -2925,11 +2925,11 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>45918.324016203704</v>
+        <v>45919.33574074074</v>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.1143015</t>
+          <t>M.15608.6470.1177471</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -2948,10 +2948,10 @@
         </is>
       </c>
       <c r="F69" s="6" t="n">
-        <v>93.13</v>
+        <v>34.73</v>
       </c>
       <c r="G69" s="7" t="n">
-        <v>9.31</v>
+        <v>3.47</v>
       </c>
       <c r="H69" s="8" t="inlineStr">
         <is>
@@ -2966,11 +2966,11 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>45918.08392361111</v>
+        <v>45919.22694444445</v>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.843623</t>
+          <t>M.15608.6470.1066795</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -2989,10 +2989,10 @@
         </is>
       </c>
       <c r="F70" s="6" t="n">
-        <v>22.1</v>
+        <v>72.61</v>
       </c>
       <c r="G70" s="7" t="n">
-        <v>2.21</v>
+        <v>7.26</v>
       </c>
       <c r="H70" s="8" t="inlineStr">
         <is>
@@ -3007,11 +3007,11 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>45918.065671296295</v>
+        <v>45919.21518518519</v>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.822020</t>
+          <t>M.15608.6470.1053702</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -3030,14 +3030,14 @@
         </is>
       </c>
       <c r="F71" s="6" t="n">
-        <v>115.23</v>
+        <v>104.35</v>
       </c>
       <c r="G71" s="7" t="n">
-        <v>11.52</v>
+        <v>10.44</v>
       </c>
       <c r="H71" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I71" s="9" t="inlineStr">
@@ -3048,11 +3048,11 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>45918.022152777776</v>
+        <v>45919.14136574074</v>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.743528</t>
+          <t>M.15608.6470.938552</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -3071,14 +3071,14 @@
         </is>
       </c>
       <c r="F72" s="6" t="n">
-        <v>37.88</v>
+        <v>47.35</v>
       </c>
       <c r="G72" s="7" t="n">
-        <v>3.79</v>
+        <v>4.74</v>
       </c>
       <c r="H72" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I72" s="9" t="inlineStr">
@@ -3089,11 +3089,11 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>45918.01488425926</v>
+        <v>45919.09471064815</v>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.731222</t>
+          <t>M.15608.6470.863616</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>Sale (iOS App)</t>
+          <t>Sale (Android App)</t>
         </is>
       </c>
       <c r="E73" s="5" t="inlineStr">
@@ -3112,14 +3112,14 @@
         </is>
       </c>
       <c r="F73" s="6" t="n">
-        <v>116.81</v>
+        <v>89.45</v>
       </c>
       <c r="G73" s="7" t="n">
-        <v>11.68</v>
+        <v>8.94</v>
       </c>
       <c r="H73" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I73" s="9" t="inlineStr">
@@ -3130,11 +3130,11 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>45917.98310185185</v>
+        <v>45919.07142361111</v>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.664376</t>
+          <t>M.15608.6470.813222</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="F74" s="6" t="n">
-        <v>63.14</v>
+        <v>33.15</v>
       </c>
       <c r="G74" s="7" t="n">
-        <v>6.31</v>
+        <v>3.31</v>
       </c>
       <c r="H74" s="8" t="inlineStr">
         <is>
@@ -3171,11 +3171,11 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>45917.94414351852</v>
+        <v>45919.031643518516</v>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.591989</t>
+          <t>M.15608.6470.744587</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -3194,14 +3194,14 @@
         </is>
       </c>
       <c r="F75" s="6" t="n">
-        <v>50.51</v>
+        <v>43.22</v>
       </c>
       <c r="G75" s="7" t="n">
-        <v>5.05</v>
+        <v>4.32</v>
       </c>
       <c r="H75" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I75" s="9" t="inlineStr">
@@ -3212,11 +3212,11 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>45917.920011574075</v>
+        <v>45918.92717592593</v>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.556289</t>
+          <t>M.15608.6470.541097</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>Sale (Android App)</t>
+          <t>Sale (iOS App)</t>
         </is>
       </c>
       <c r="E76" s="5" t="inlineStr">
@@ -3235,10 +3235,10 @@
         </is>
       </c>
       <c r="F76" s="6" t="n">
-        <v>116.31</v>
+        <v>37.88</v>
       </c>
       <c r="G76" s="7" t="n">
-        <v>11.63</v>
+        <v>3.79</v>
       </c>
       <c r="H76" s="8" t="inlineStr">
         <is>
@@ -3253,11 +3253,11 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>45917.89946759259</v>
+        <v>45918.83820601852</v>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.506983</t>
+          <t>M.15608.6470.353586</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -3276,10 +3276,10 @@
         </is>
       </c>
       <c r="F77" s="6" t="n">
-        <v>34.73</v>
+        <v>93.13</v>
       </c>
       <c r="G77" s="7" t="n">
-        <v>3.47</v>
+        <v>9.31</v>
       </c>
       <c r="H77" s="8" t="inlineStr">
         <is>
@@ -3294,11 +3294,11 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>45917.827465277776</v>
+        <v>45918.782222222224</v>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.381312</t>
+          <t>M.15608.6470.245924</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -3317,14 +3317,14 @@
         </is>
       </c>
       <c r="F78" s="6" t="n">
-        <v>75.77</v>
+        <v>28.41</v>
       </c>
       <c r="G78" s="7" t="n">
-        <v>7.58</v>
+        <v>2.84</v>
       </c>
       <c r="H78" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I78" s="9" t="inlineStr">
@@ -3335,11 +3335,11 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>45917.721238425926</v>
+        <v>45918.75540509259</v>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.172495</t>
+          <t>M.15608.6470.195187</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -3358,14 +3358,14 @@
         </is>
       </c>
       <c r="F79" s="6" t="n">
-        <v>45.78</v>
+        <v>110.49</v>
       </c>
       <c r="G79" s="7" t="n">
-        <v>4.58</v>
+        <v>11.05</v>
       </c>
       <c r="H79" s="8" t="inlineStr">
         <is>
-          <t>D20</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I79" s="9" t="inlineStr">
@@ -3376,11 +3376,11 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>45917.71158564815</v>
+        <v>45918.75324074074</v>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.161953</t>
+          <t>M.15608.6470.192368</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="F80" s="6" t="n">
-        <v>45.78</v>
+        <v>110.49</v>
       </c>
       <c r="G80" s="7" t="n">
-        <v>4.58</v>
+        <v>11.05</v>
       </c>
       <c r="H80" s="8" t="inlineStr">
         <is>
@@ -3417,11 +3417,11 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>45917.694861111115</v>
+        <v>45918.74896990741</v>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.130787</t>
+          <t>M.15608.6470.186732</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -3440,14 +3440,14 @@
         </is>
       </c>
       <c r="F81" s="6" t="n">
-        <v>53.67</v>
+        <v>31.57</v>
       </c>
       <c r="G81" s="7" t="n">
-        <v>5.37</v>
+        <v>3.16</v>
       </c>
       <c r="H81" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I81" s="9" t="inlineStr">
@@ -3458,11 +3458,11 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>45917.68472222222</v>
+        <v>45918.64865740741</v>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.122555</t>
+          <t>M.15608.6470.82192</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -3481,10 +3481,10 @@
         </is>
       </c>
       <c r="F82" s="6" t="n">
-        <v>154.69</v>
+        <v>63.14</v>
       </c>
       <c r="G82" s="7" t="n">
-        <v>15.47</v>
+        <v>6.31</v>
       </c>
       <c r="H82" s="8" t="inlineStr">
         <is>
@@ -3499,11 +3499,11 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>45917.64928240741</v>
+        <v>45918.645219907405</v>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.82999</t>
+          <t>M.15608.6470.80032</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -3522,14 +3522,14 @@
         </is>
       </c>
       <c r="F83" s="6" t="n">
-        <v>82.08</v>
+        <v>52.09</v>
       </c>
       <c r="G83" s="7" t="n">
-        <v>8.21</v>
+        <v>5.21</v>
       </c>
       <c r="H83" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I83" s="9" t="inlineStr">
@@ -3540,11 +3540,11 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>45917.59239583334</v>
+        <v>45918.614756944444</v>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.47890</t>
+          <t>M.15608.6470.64952</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -3563,10 +3563,10 @@
         </is>
       </c>
       <c r="F84" s="6" t="n">
-        <v>14.21</v>
+        <v>116.14</v>
       </c>
       <c r="G84" s="7" t="n">
-        <v>1.42</v>
+        <v>11.61</v>
       </c>
       <c r="H84" s="8" t="inlineStr">
         <is>
@@ -3581,11 +3581,11 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>45917.58949074074</v>
+        <v>45918.59846064815</v>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.47580</t>
+          <t>M.15608.6470.49497</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -3604,14 +3604,14 @@
         </is>
       </c>
       <c r="F85" s="6" t="n">
-        <v>28.1</v>
+        <v>59.63</v>
       </c>
       <c r="G85" s="7" t="n">
-        <v>2.81</v>
+        <v>5.96</v>
       </c>
       <c r="H85" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I85" s="9" t="inlineStr">
@@ -3622,11 +3622,11 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>45917.51429398148</v>
+        <v>45918.324016203704</v>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6469.9353</t>
+          <t>M.15608.6469.1143015</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -3645,14 +3645,14 @@
         </is>
       </c>
       <c r="F86" s="6" t="n">
-        <v>29.82</v>
+        <v>93.13</v>
       </c>
       <c r="G86" s="7" t="n">
-        <v>2.98</v>
+        <v>9.31</v>
       </c>
       <c r="H86" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I86" s="9" t="inlineStr">
@@ -3663,11 +3663,11 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>45917.4171875</v>
+        <v>45918.08392361111</v>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6468.1285257</t>
+          <t>M.15608.6469.843623</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -3686,10 +3686,10 @@
         </is>
       </c>
       <c r="F87" s="6" t="n">
-        <v>15.78</v>
+        <v>22.1</v>
       </c>
       <c r="G87" s="7" t="n">
-        <v>1.58</v>
+        <v>2.21</v>
       </c>
       <c r="H87" s="8" t="inlineStr">
         <is>
@@ -3704,11 +3704,11 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>45917.33658564815</v>
+        <v>45918.065671296295</v>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6468.1214210</t>
+          <t>M.15608.6469.822020</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="F88" s="6" t="n">
-        <v>86.82</v>
+        <v>115.23</v>
       </c>
       <c r="G88" s="7" t="n">
-        <v>8.68</v>
+        <v>11.52</v>
       </c>
       <c r="H88" s="8" t="inlineStr">
         <is>
@@ -3745,11 +3745,11 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>45917.29332175926</v>
+        <v>45918.022152777776</v>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6468.1163364</t>
+          <t>M.15608.6469.743528</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -3768,14 +3768,14 @@
         </is>
       </c>
       <c r="F89" s="6" t="n">
-        <v>39.46</v>
+        <v>37.88</v>
       </c>
       <c r="G89" s="7" t="n">
-        <v>3.95</v>
+        <v>3.79</v>
       </c>
       <c r="H89" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I89" s="9" t="inlineStr">
@@ -3786,11 +3786,11 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>45917.19206018518</v>
+        <v>45918.01488425926</v>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6468.1001454</t>
+          <t>M.15608.6469.731222</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="F90" s="6" t="n">
-        <v>110.49</v>
+        <v>116.81</v>
       </c>
       <c r="G90" s="7" t="n">
-        <v>11.05</v>
+        <v>11.68</v>
       </c>
       <c r="H90" s="8" t="inlineStr">
         <is>
@@ -3826,781 +3826,43 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>45917.19048611111</v>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6468.1000830</t>
-        </is>
-      </c>
-      <c r="C91" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D91" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E91" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F91" s="6" t="n">
-        <v>39.46</v>
-      </c>
-      <c r="G91" s="7" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H91" s="8" t="inlineStr">
-        <is>
-          <t>D26</t>
-        </is>
-      </c>
-      <c r="I91" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>45917.051875</v>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6468.776372</t>
-        </is>
-      </c>
-      <c r="C92" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D92" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E92" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F92" s="6" t="n">
-        <v>48.93</v>
-      </c>
-      <c r="G92" s="7" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="H92" s="8" t="inlineStr">
-        <is>
-          <t>D26</t>
-        </is>
-      </c>
-      <c r="I92" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>45916.88296296296</v>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6468.375404</t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D93" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E93" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F93" s="6" t="n">
-        <v>124.48</v>
-      </c>
-      <c r="G93" s="7" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="H93" s="8" t="inlineStr">
-        <is>
-          <t>D26</t>
-        </is>
-      </c>
-      <c r="I93" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>45916.840046296296</v>
-      </c>
-      <c r="B94" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6468.302938</t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D94" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E94" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F94" s="6" t="n">
-        <v>41.04</v>
-      </c>
-      <c r="G94" s="7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H94" s="8" t="inlineStr">
-        <is>
-          <t>D5</t>
-        </is>
-      </c>
-      <c r="I94" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>45916.82832175926</v>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6468.285033</t>
-        </is>
-      </c>
-      <c r="C95" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D95" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E95" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F95" s="6" t="n">
-        <v>50.51</v>
-      </c>
-      <c r="G95" s="7" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="H95" s="8" t="inlineStr">
-        <is>
-          <t>D26</t>
-        </is>
-      </c>
-      <c r="I95" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>45916.77332175926</v>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6468.210135</t>
-        </is>
-      </c>
-      <c r="C96" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D96" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E96" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F96" s="6" t="n">
-        <v>72.61</v>
-      </c>
-      <c r="G96" s="7" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="H96" s="8" t="inlineStr">
-        <is>
-          <t>D26</t>
-        </is>
-      </c>
-      <c r="I96" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>45916.757418981484</v>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6468.188975</t>
-        </is>
-      </c>
-      <c r="C97" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D97" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E97" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F97" s="6" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="G97" s="7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="H97" s="8" t="inlineStr">
-        <is>
-          <t>SAHS</t>
-        </is>
-      </c>
-      <c r="I97" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>45916.64466435185</v>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6468.343043</t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D98" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E98" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F98" s="6" t="n">
-        <v>110.49</v>
-      </c>
-      <c r="G98" s="7" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="H98" s="8" t="inlineStr">
-        <is>
-          <t>D26</t>
-        </is>
-      </c>
-      <c r="I98" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>45916.60638888889</v>
-      </c>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6468.61076</t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D99" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E99" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F99" s="6" t="n">
-        <v>20.52</v>
-      </c>
-      <c r="G99" s="7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H99" s="8" t="inlineStr">
-        <is>
-          <t>SAHS</t>
-        </is>
-      </c>
-      <c r="I99" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>45916.59060185185</v>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6468.45456</t>
-        </is>
-      </c>
-      <c r="C100" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D100" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E100" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F100" s="6" t="n">
-        <v>110.49</v>
-      </c>
-      <c r="G100" s="7" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="H100" s="8" t="inlineStr">
-        <is>
-          <t>SAHS</t>
-        </is>
-      </c>
-      <c r="I100" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>45916.54105324074</v>
-      </c>
-      <c r="B101" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6468.21061</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D101" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E101" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F101" s="6" t="n">
-        <v>104.35</v>
-      </c>
-      <c r="G101" s="7" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="H101" s="8" t="inlineStr">
-        <is>
-          <t>SAHS15</t>
-        </is>
-      </c>
-      <c r="I101" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>45916.411041666666</v>
-      </c>
-      <c r="B102" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6467.1270982</t>
-        </is>
-      </c>
-      <c r="C102" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D102" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E102" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F102" s="6" t="n">
-        <v>110.49</v>
-      </c>
-      <c r="G102" s="7" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="H102" s="8" t="inlineStr">
-        <is>
-          <t>SAHS</t>
-        </is>
-      </c>
-      <c r="I102" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>45916.376550925925</v>
-      </c>
-      <c r="B103" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6467.1248503</t>
-        </is>
-      </c>
-      <c r="C103" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D103" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E103" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F103" s="6" t="n">
-        <v>39.46</v>
-      </c>
-      <c r="G103" s="7" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H103" s="8" t="inlineStr">
-        <is>
-          <t>D26</t>
-        </is>
-      </c>
-      <c r="I103" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>45916.366527777776</v>
-      </c>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6467.1242852</t>
-        </is>
-      </c>
-      <c r="C104" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D104" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E104" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F104" s="6" t="n">
-        <v>39.46</v>
-      </c>
-      <c r="G104" s="7" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H104" s="8" t="inlineStr">
-        <is>
-          <t>D26</t>
-        </is>
-      </c>
-      <c r="I104" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>45916.16378472222</v>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6467.732732</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D105" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E105" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F105" s="6" t="n">
-        <v>104.35</v>
-      </c>
-      <c r="G105" s="7" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="H105" s="8" t="inlineStr">
-        <is>
-          <t>SAHS15</t>
-        </is>
-      </c>
-      <c r="I105" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>45916.13138888889</v>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6467.698779</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D106" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E106" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F106" s="6" t="n">
-        <v>104.35</v>
-      </c>
-      <c r="G106" s="7" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="H106" s="8" t="inlineStr">
-        <is>
-          <t>SAHS15</t>
-        </is>
-      </c>
-      <c r="I106" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>45916.049791666665</v>
-      </c>
-      <c r="B107" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6467.594226</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D107" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E107" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F107" s="6" t="n">
-        <v>104.35</v>
-      </c>
-      <c r="G107" s="7" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="H107" s="8" t="inlineStr">
-        <is>
-          <t>SAHS15</t>
-        </is>
-      </c>
-      <c r="I107" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>45916.03309027778</v>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>M.15608.6467.570676</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>Airalo - The World's First eSIM Store</t>
-        </is>
-      </c>
-      <c r="D108" s="4" t="inlineStr">
-        <is>
-          <t>Sale (iOS App)</t>
-        </is>
-      </c>
-      <c r="E108" s="5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F108" s="6" t="n">
-        <v>33.15</v>
-      </c>
-      <c r="G108" s="7" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="H108" s="8" t="inlineStr">
-        <is>
-          <t>SAHS</t>
-        </is>
-      </c>
-      <c r="I108" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B109" s="12" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C109" s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D109" s="14" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E109" s="15" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F109" s="16" t="n">
-        <v>6973.04</v>
-      </c>
-      <c r="G109" s="17" t="n">
-        <v>697.31</v>
-      </c>
-      <c r="H109" s="18" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I109" s="19" t="inlineStr">
+      <c r="A91" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B91" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C91" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D91" s="14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E91" s="15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F91" s="16" t="n">
+        <v>5563.24</v>
+      </c>
+      <c r="G91" s="17" t="n">
+        <v>556.31</v>
+      </c>
+      <c r="H91" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I91" s="19" t="inlineStr">
         <is>
           <t/>
         </is>
